--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AS)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AS).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AS)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(AS).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AS)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AS)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | AC 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AS)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,24 +530,146 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">As
-Asa
-Asarina
+          <t>As</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Asa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Asarina
 Asarum - fam.  Aristolochiacées
 Asarum canadense - Gingembre sauvage ou Asaret
 Asarum caudatum
 Asarum europaeum Asaret d'Europe - photo
-Asarum vulgare - Asaret
-Asc
-Asclepias - fam. Asclépiadacées
+Asarum vulgare - Asaret</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Asc</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Asclepias - fam. Asclépiadacées
 Asclepias incarnata - Asclépiade incarnate
 Asclepias syriaca ou Asclepias cornutii - Asclépiade à la ouate
-Asclepias tuberosa - Asclépiade tubéreuse - photo
-Asi
-Asimina
-Asimina triloba - Asiminier trilobé - photo
-Asp
-Asparagus - fam. Asparagacées ou Liliacées (plante potagère)
+Asclepias tuberosa - Asclépiade tubéreuse - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Asi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Asimina
+Asimina triloba - Asiminier trilobé - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Asparagus - fam. Asparagacées ou Liliacées (plante potagère)
 Asparagus acutifolius -  Asperge à feuilles pointues
 Asparagus medeloïdes -  Medeola asparagoïdes
 Asparagus officinalis - Asperge
@@ -564,9 +698,47 @@
 Asplenium (fougère)
 Asplenium scolopendrium - photo
 Asplenium scolopendrium cristatum
-Asplenium trichomanes - photo
-Ast
-Aster - fam. Astéracées
+Asplenium trichomanes - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(AS)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ast</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aster - fam. Astéracées
 Aster acuminatus - Aster acuminé
 Aster ageratoides
 Aster ageratoides adustus nanus
